--- a/notebooks/step04_FUHistory.xlsx
+++ b/notebooks/step04_FUHistory.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2023\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1381B967-8AB5-4780-8787-0447B8F00B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC3027-749D-4A33-BFCC-A4FA3546B218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13290"/>
+    <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="step04_FUHistory" sheetId="1" r:id="rId1"/>
@@ -1172,7 +1172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1697,7 +1697,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1715,7 +1715,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2035,11 +2049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
-      <selection activeCell="F2423" sqref="F2423"/>
+    <sheetView tabSelected="1" topLeftCell="A2379" workbookViewId="0">
+      <selection activeCell="P2407" sqref="P2407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92743,7 +92757,7 @@
         <v>16</v>
       </c>
       <c r="F2387" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="G2387">
         <v>72</v>
@@ -92752,7 +92766,7 @@
         <v>16</v>
       </c>
       <c r="I2387" t="s">
-        <v>65</v>
+        <v>251</v>
       </c>
       <c r="J2387">
         <v>72</v>
@@ -92781,7 +92795,7 @@
         <v>11</v>
       </c>
       <c r="F2388" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="G2388">
         <v>72</v>
@@ -92790,7 +92804,7 @@
         <v>11</v>
       </c>
       <c r="I2388" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="J2388">
         <v>72</v>
@@ -92819,7 +92833,7 @@
         <v>16</v>
       </c>
       <c r="F2389" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="G2389">
         <v>72</v>
@@ -92828,7 +92842,7 @@
         <v>16</v>
       </c>
       <c r="I2389" t="s">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="J2389">
         <v>72</v>
@@ -92857,7 +92871,7 @@
         <v>11</v>
       </c>
       <c r="F2390" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="G2390">
         <v>72</v>
@@ -92866,7 +92880,7 @@
         <v>11</v>
       </c>
       <c r="I2390" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="J2390">
         <v>72</v>
@@ -92895,7 +92909,7 @@
         <v>1</v>
       </c>
       <c r="F2391" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G2391">
         <v>72</v>
@@ -92904,7 +92918,7 @@
         <v>16</v>
       </c>
       <c r="I2391" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="J2391">
         <v>72</v>
@@ -92933,7 +92947,7 @@
         <v>8</v>
       </c>
       <c r="F2392" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G2392">
         <v>72</v>
@@ -92942,7 +92956,7 @@
         <v>9</v>
       </c>
       <c r="I2392" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="J2392">
         <v>72</v>
@@ -92971,7 +92985,7 @@
         <v>5</v>
       </c>
       <c r="F2393" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="G2393">
         <v>72</v>
@@ -92980,7 +92994,7 @@
         <v>12</v>
       </c>
       <c r="I2393" t="s">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="J2393">
         <v>72</v>
@@ -93018,7 +93032,7 @@
         <v>13</v>
       </c>
       <c r="I2394" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
       <c r="J2394">
         <v>72</v>
@@ -93047,7 +93061,7 @@
         <v>6</v>
       </c>
       <c r="F2395" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="G2395">
         <v>72</v>
@@ -93056,7 +93070,7 @@
         <v>11</v>
       </c>
       <c r="I2395" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="J2395">
         <v>72</v>
@@ -93085,7 +93099,7 @@
         <v>3</v>
       </c>
       <c r="F2396" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="G2396">
         <v>72</v>
@@ -93094,7 +93108,7 @@
         <v>14</v>
       </c>
       <c r="I2396" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="J2396">
         <v>72</v>
@@ -93123,7 +93137,7 @@
         <v>7</v>
       </c>
       <c r="F2397" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="G2397">
         <v>72</v>
@@ -93132,7 +93146,7 @@
         <v>10</v>
       </c>
       <c r="I2397" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J2397">
         <v>72</v>
@@ -93170,7 +93184,7 @@
         <v>15</v>
       </c>
       <c r="I2398" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="J2398">
         <v>72</v>
@@ -93199,7 +93213,7 @@
         <v>1</v>
       </c>
       <c r="F2399" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G2399">
         <v>72</v>
@@ -93208,7 +93222,7 @@
         <v>16</v>
       </c>
       <c r="I2399" t="s">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="J2399">
         <v>72</v>
@@ -93237,7 +93251,7 @@
         <v>8</v>
       </c>
       <c r="F2400" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="G2400">
         <v>72</v>
@@ -93246,7 +93260,7 @@
         <v>9</v>
       </c>
       <c r="I2400" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="J2400">
         <v>72</v>
@@ -93275,7 +93289,7 @@
         <v>5</v>
       </c>
       <c r="F2401" t="s">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="G2401">
         <v>72</v>
@@ -93284,7 +93298,7 @@
         <v>12</v>
       </c>
       <c r="I2401" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="J2401">
         <v>72</v>
@@ -93313,7 +93327,7 @@
         <v>4</v>
       </c>
       <c r="F2402" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="G2402">
         <v>72</v>
@@ -93322,7 +93336,7 @@
         <v>13</v>
       </c>
       <c r="I2402" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="J2402">
         <v>72</v>
@@ -93351,7 +93365,7 @@
         <v>6</v>
       </c>
       <c r="F2403" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G2403">
         <v>72</v>
@@ -93360,7 +93374,7 @@
         <v>11</v>
       </c>
       <c r="I2403" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="J2403">
         <v>72</v>
@@ -93389,7 +93403,7 @@
         <v>3</v>
       </c>
       <c r="F2404" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="G2404">
         <v>72</v>
@@ -93427,7 +93441,7 @@
         <v>7</v>
       </c>
       <c r="F2405" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G2405">
         <v>72</v>
@@ -93436,7 +93450,7 @@
         <v>10</v>
       </c>
       <c r="I2405" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="J2405">
         <v>72</v>
@@ -93465,7 +93479,7 @@
         <v>2</v>
       </c>
       <c r="F2406" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="G2406">
         <v>72</v>
@@ -93474,7 +93488,7 @@
         <v>15</v>
       </c>
       <c r="I2406" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="J2406">
         <v>72</v>
@@ -93512,7 +93526,7 @@
         <v>16</v>
       </c>
       <c r="I2407" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J2407">
         <v>72</v>
@@ -93541,7 +93555,7 @@
         <v>8</v>
       </c>
       <c r="F2408" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2408">
         <v>72</v>
@@ -93550,7 +93564,7 @@
         <v>9</v>
       </c>
       <c r="I2408" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="J2408">
         <v>72</v>
@@ -93579,7 +93593,7 @@
         <v>5</v>
       </c>
       <c r="F2409" t="s">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="G2409">
         <v>72</v>
@@ -93588,7 +93602,7 @@
         <v>12</v>
       </c>
       <c r="I2409" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="J2409">
         <v>72</v>
@@ -93617,7 +93631,7 @@
         <v>4</v>
       </c>
       <c r="F2410" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G2410">
         <v>72</v>
@@ -93626,7 +93640,7 @@
         <v>13</v>
       </c>
       <c r="I2410" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="J2410">
         <v>72</v>
@@ -93655,7 +93669,7 @@
         <v>6</v>
       </c>
       <c r="F2411" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="G2411">
         <v>72</v>
@@ -93664,7 +93678,7 @@
         <v>11</v>
       </c>
       <c r="I2411" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2411">
         <v>72</v>
@@ -93693,7 +93707,7 @@
         <v>3</v>
       </c>
       <c r="F2412" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="G2412">
         <v>72</v>
@@ -93702,7 +93716,7 @@
         <v>14</v>
       </c>
       <c r="I2412" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="J2412">
         <v>72</v>
@@ -93731,7 +93745,7 @@
         <v>7</v>
       </c>
       <c r="F2413" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G2413">
         <v>72</v>
@@ -93740,7 +93754,7 @@
         <v>10</v>
       </c>
       <c r="I2413" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="J2413">
         <v>72</v>
@@ -93769,7 +93783,7 @@
         <v>2</v>
       </c>
       <c r="F2414" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="G2414">
         <v>72</v>
@@ -93778,7 +93792,7 @@
         <v>15</v>
       </c>
       <c r="I2414" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="J2414">
         <v>72</v>
@@ -93807,7 +93821,7 @@
         <v>1</v>
       </c>
       <c r="F2415" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G2415">
         <v>72</v>
@@ -93845,7 +93859,7 @@
         <v>8</v>
       </c>
       <c r="F2416" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G2416">
         <v>72</v>
@@ -93854,7 +93868,7 @@
         <v>9</v>
       </c>
       <c r="I2416" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="J2416">
         <v>72</v>
@@ -93883,7 +93897,7 @@
         <v>5</v>
       </c>
       <c r="F2417" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G2417">
         <v>72</v>
@@ -93892,7 +93906,7 @@
         <v>12</v>
       </c>
       <c r="I2417" t="s">
-        <v>272</v>
+        <v>27</v>
       </c>
       <c r="J2417">
         <v>72</v>
@@ -93921,7 +93935,7 @@
         <v>4</v>
       </c>
       <c r="F2418" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="G2418">
         <v>72</v>
@@ -93930,7 +93944,7 @@
         <v>13</v>
       </c>
       <c r="I2418" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J2418">
         <v>72</v>
@@ -93959,7 +93973,7 @@
         <v>6</v>
       </c>
       <c r="F2419" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="G2419">
         <v>72</v>
@@ -93968,7 +93982,7 @@
         <v>11</v>
       </c>
       <c r="I2419" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="J2419">
         <v>72</v>
@@ -93997,7 +94011,7 @@
         <v>3</v>
       </c>
       <c r="F2420" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="G2420">
         <v>72</v>
@@ -94006,7 +94020,7 @@
         <v>14</v>
       </c>
       <c r="I2420" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="J2420">
         <v>72</v>
@@ -94035,7 +94049,7 @@
         <v>7</v>
       </c>
       <c r="F2421" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
       <c r="G2421">
         <v>72</v>
@@ -94044,7 +94058,7 @@
         <v>10</v>
       </c>
       <c r="I2421" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="J2421">
         <v>72</v>
@@ -94073,7 +94087,7 @@
         <v>2</v>
       </c>
       <c r="F2422" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="G2422">
         <v>72</v>
@@ -94082,7 +94096,7 @@
         <v>15</v>
       </c>
       <c r="I2422" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J2422">
         <v>72</v>
@@ -94102,7 +94116,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="2" id="{985716B2-4A92-4935-90E9-2E4C41FA8D45}">
-            <xm:f>MATCH($F2391,Sheet1!$A$2:$A$364,0)</xm:f>
+            <xm:f>MATCH($F2387,Sheet1!$A$2:$A$364,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -94111,11 +94125,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2391:F2422</xm:sqref>
+          <xm:sqref>F2387:F2422</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{D07094E1-B944-47E4-9ABF-B2075BEB07DF}">
-            <xm:f>MATCH($I2391,Sheet1!$A$2:$A$364,0)</xm:f>
+            <xm:f>MATCH($I2387,Sheet1!$A$2:$A$364,0)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -94124,7 +94138,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I2391:I2422</xm:sqref>
+          <xm:sqref>I2387:I2422</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -94133,7 +94147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A364"/>
   <sheetViews>
     <sheetView topLeftCell="A336" workbookViewId="0">

--- a/notebooks/step04_FUHistory.xlsx
+++ b/notebooks/step04_FUHistory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Python_Madness_2023\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AC3027-749D-4A33-BFCC-A4FA3546B218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7856AD7E-CA64-41E8-B07E-3ED86126C041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1697,35 +1697,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2052,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2379" workbookViewId="0">
-      <selection activeCell="P2407" sqref="P2407"/>
+    <sheetView tabSelected="1" topLeftCell="A2392" workbookViewId="0">
+      <selection activeCell="I2400" sqref="I2400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92760,7 +92732,7 @@
         <v>284</v>
       </c>
       <c r="G2387">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2387">
         <v>16</v>
@@ -92769,7 +92741,7 @@
         <v>251</v>
       </c>
       <c r="J2387">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2387">
         <v>18</v>
@@ -92798,7 +92770,7 @@
         <v>177</v>
       </c>
       <c r="G2388">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H2388">
         <v>11</v>
@@ -92807,7 +92779,7 @@
         <v>52</v>
       </c>
       <c r="J2388">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K2388">
         <v>10</v>
@@ -92836,7 +92808,7 @@
         <v>171</v>
       </c>
       <c r="G2389">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H2389">
         <v>16</v>
@@ -92845,7 +92817,7 @@
         <v>65</v>
       </c>
       <c r="J2389">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K2389">
         <v>2</v>
@@ -92874,7 +92846,7 @@
         <v>182</v>
       </c>
       <c r="G2390">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="H2390">
         <v>11</v>
@@ -92883,7 +92855,7 @@
         <v>24</v>
       </c>
       <c r="J2390">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2390">
         <v>26</v>
@@ -93222,7 +93194,7 @@
         <v>16</v>
       </c>
       <c r="I2399" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="J2399">
         <v>72</v>
@@ -93678,7 +93650,7 @@
         <v>11</v>
       </c>
       <c r="I2411" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="J2411">
         <v>72</v>
